--- a/Plan calidad.xlsx
+++ b/Plan calidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\AcmeDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -65,22 +65,10 @@
     <t>Diagrama UML de clases</t>
   </si>
   <si>
-    <t>Mala ortografía y sin ambigüedades.</t>
-  </si>
-  <si>
-    <t>Cumpla la estructura de un diagrama de flujo y sin mala ortografía</t>
-  </si>
-  <si>
     <t>Errores/Diagrama</t>
   </si>
   <si>
     <t>Errores/página</t>
-  </si>
-  <si>
-    <t>Cumpla con la estructura de un diagrama entidad-realcion y sin mala ortografía</t>
-  </si>
-  <si>
-    <t>Cumpla con la estructura de un diagrama de clases (UML) y sin mala ortografía</t>
   </si>
   <si>
     <r>
@@ -123,13 +111,31 @@
     <t>Errores/Interfaz</t>
   </si>
   <si>
-    <t>Interfaces (Código)</t>
-  </si>
-  <si>
-    <t>Que cuente con todos los elementos solicitados por el cliente y los prototipos aceptados</t>
-  </si>
-  <si>
-    <t>Errores/prototipo</t>
+    <t xml:space="preserve">Mala ortografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sin ambigüedades</t>
+  </si>
+  <si>
+    <t>Manuales</t>
+  </si>
+  <si>
+    <t>Errores/manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumpla la estructura de un diagrama de flujo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumpla con la estructura de un diagrama entidad-realcion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumpla con la estructura de un diagrama de clases (UML) </t>
+  </si>
+  <si>
+    <t>Sin ambigüedades</t>
+  </si>
+  <si>
+    <t>Pasos omitidos</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +193,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,20 +247,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,18 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -255,7 +353,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="A16" sqref="A16:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,258 +738,374 @@
     <col min="5" max="5" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="F3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>8</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Plan calidad.xlsx
+++ b/Plan calidad.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\AcmeDev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -380,6 +375,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -392,31 +408,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -715,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,42 +721,42 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -781,11 +776,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -798,14 +793,14 @@
         <v>14</v>
       </c>
       <c r="F4" s="15"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
@@ -816,16 +811,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -843,9 +838,9 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
@@ -857,11 +852,11 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -875,9 +870,9 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
@@ -889,7 +884,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>4</v>
       </c>
@@ -907,7 +902,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="35"/>
       <c r="C11" s="13" t="s">
@@ -921,7 +916,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>5</v>
       </c>
@@ -939,7 +934,7 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="37"/>
       <c r="C13" s="15" t="s">
@@ -953,7 +948,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -971,7 +966,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -989,7 +984,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>8</v>
       </c>
@@ -1007,7 +1002,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="38"/>
       <c r="C17" s="16" t="s">
@@ -1021,7 +1016,7 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="35"/>
       <c r="C18" s="13" t="s">
@@ -1035,7 +1030,7 @@
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1043,7 +1038,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -1053,7 +1048,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1061,15 +1056,15 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1077,7 +1072,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -1087,12 +1082,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -1106,6 +1095,12 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
